--- a/data/Average_of_stay.xlsx
+++ b/data/Average_of_stay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soichirotanabe/Desktop/IRONHACK/Week_5/Mid_bootcamp_project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E2EE1A7-BC78-A84D-B3A8-BA4AE37FACC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDA5DBD-4F62-EA4E-9C9F-8CF68AE18496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16440" xr2:uid="{0BA83729-A990-3443-89E2-243625139654}"/>
   </bookViews>
@@ -662,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CFAC78D-5774-9F4E-B08A-9685219ABCF5}">
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A38" sqref="A37:A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3103,6 +3103,11 @@
         <v>8.4131523968069697</v>
       </c>
     </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
